--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1487,31 +1487,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,31 +1547,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1616,52 +1616,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,16 +1727,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1886,17 +1886,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1907,21 +1907,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,22 +1946,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1976,42 +1976,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,50 +2156,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>19</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori4/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1487,31 +1487,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,31 +1547,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1616,52 +1616,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,16 +1727,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1886,17 +1886,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1907,21 +1907,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,22 +1946,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1976,42 +1976,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,20 +2156,50 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Weak GPS signal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>19</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Please fly with caution</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
